--- a/docs/20180513映射地址集.xlsx
+++ b/docs/20180513映射地址集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w\Desktop\ProductionLineMonitor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9C6D6CA-71C2-401B-9A8B-1CDB65BC674A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{46779829-6760-4049-AE15-23A899898F97}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8310" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3217,6 +3217,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3233,9 +3236,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7408,8 +7408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="I188" sqref="I188"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7443,12 +7443,12 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1">
       <c r="A3" s="11" t="s">
@@ -8385,14 +8385,14 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="34" t="s">
         <v>914</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="6" t="s">
@@ -9252,14 +9252,14 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="34" t="s">
         <v>914</v>
       </c>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="35"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="36"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="6" t="s">
@@ -11106,14 +11106,14 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="36" t="s">
+      <c r="A180" s="30" t="s">
         <v>955</v>
       </c>
-      <c r="B180" s="36"/>
-      <c r="C180" s="36"/>
-      <c r="D180" s="36"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="36"/>
+      <c r="B180" s="30"/>
+      <c r="C180" s="30"/>
+      <c r="D180" s="30"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="30"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="6" t="s">
@@ -11447,12 +11447,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="A180:F180"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="A162:F162"/>
-    <mergeCell ref="A153:F153"/>
-    <mergeCell ref="A144:F144"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A2:F2"/>
@@ -11462,6 +11456,12 @@
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="A180:F180"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A162:F162"/>
+    <mergeCell ref="A153:F153"/>
+    <mergeCell ref="A144:F144"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
